--- a/Intervention outcomes and spillover effects/Intervention outcomes and spillover effects.xlsx
+++ b/Intervention outcomes and spillover effects/Intervention outcomes and spillover effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention outcomes and spillover effects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="11_D295A90A2C535A10C2167341E065F5EB470CA969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B97DFB90-111B-45E6-B098-AE1ACF497864}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1414051-C22F-354E-BC37-C45AFBBB2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="3400" windowWidth="23600" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1805,42 +1805,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="22.90625" customWidth="1"/>
-    <col min="21" max="21" width="17.1796875" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" style="14" customWidth="1"/>
+    <col min="20" max="20" width="22.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -1945,7 +1943,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -1984,7 +1982,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="12" t="s">
         <v>38</v>
@@ -2180,7 +2178,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="12" t="s">
         <v>40</v>
@@ -2218,7 +2216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="12" t="s">
         <v>42</v>
@@ -2258,7 +2256,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="12" t="s">
         <v>44</v>
@@ -2298,7 +2296,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2382,7 +2380,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>60</v>
@@ -2420,7 +2418,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>67</v>
@@ -2460,7 +2458,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="12" t="s">
         <v>70</v>
@@ -2542,7 +2540,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>72</v>
@@ -2582,7 +2580,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>74</v>
@@ -2624,7 +2622,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>76</v>
@@ -2664,7 +2662,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="12" t="s">
         <v>80</v>
@@ -2708,7 +2706,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>82</v>
@@ -2750,7 +2748,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>84</v>
@@ -2790,7 +2788,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="12" t="s">
         <v>86</v>
@@ -2834,7 +2832,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>88</v>
@@ -2871,7 +2869,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="12" t="s">
         <v>91</v>
@@ -2913,7 +2911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>93</v>
@@ -2950,7 +2948,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="12" t="s">
         <v>95</v>
@@ -2992,7 +2990,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
@@ -3030,7 +3028,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="12" t="s">
         <v>100</v>
@@ -3072,7 +3070,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="12" t="s">
         <v>108</v>
@@ -3109,7 +3107,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="12" t="s">
         <v>106</v>
@@ -3147,7 +3145,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>102</v>
@@ -3189,7 +3187,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="12" t="s">
         <v>104</v>
@@ -3231,7 +3229,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>111</v>
@@ -3275,7 +3273,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
@@ -3313,7 +3311,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>116</v>
@@ -3355,7 +3353,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
@@ -3397,7 +3395,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>123</v>
@@ -3437,7 +3435,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -3479,7 +3477,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="13" t="s">
         <v>127</v>
@@ -3521,7 +3519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="17" t="s">
         <v>129</v>
@@ -3559,7 +3557,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
@@ -3597,7 +3595,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="18" t="s">
         <v>134</v>
@@ -3635,7 +3633,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="18" t="s">
         <v>136</v>
@@ -3675,7 +3673,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="11" t="s">
         <v>139</v>
@@ -3713,7 +3711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>142</v>
@@ -3751,7 +3749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
@@ -3789,7 +3787,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>146</v>
@@ -3827,7 +3825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>148</v>
@@ -3867,7 +3865,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
@@ -3907,7 +3905,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>155</v>
@@ -3945,7 +3943,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="13" t="s">
         <v>157</v>
@@ -3983,7 +3981,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>159</v>
@@ -4021,7 +4019,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>161</v>
@@ -4059,7 +4057,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
@@ -4099,7 +4097,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>168</v>
@@ -4137,7 +4135,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>154</v>
@@ -4178,7 +4176,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
@@ -4216,7 +4214,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>175</v>
@@ -4258,7 +4256,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>177</v>
@@ -4300,7 +4298,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>179</v>
@@ -4340,7 +4338,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>185</v>
@@ -4380,7 +4378,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>187</v>
@@ -4420,7 +4418,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>191</v>
@@ -4456,7 +4454,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
@@ -4496,7 +4494,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>196</v>
@@ -4536,7 +4534,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="13" t="s">
         <v>199</v>
@@ -4576,7 +4574,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="12" t="s">
         <v>204</v>
@@ -4614,7 +4612,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="96" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="12" t="s">
         <v>206</v>
@@ -4654,7 +4652,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="12" t="s">
         <v>198</v>
@@ -4696,7 +4694,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="96" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="12" t="s">
         <v>210</v>
@@ -4736,7 +4734,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="1" t="s">
         <v>217</v>
@@ -4774,7 +4772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="1" t="s">
         <v>219</v>
@@ -4812,7 +4810,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="12" t="s">
         <v>222</v>
@@ -4847,7 +4845,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="12" t="s">
         <v>224</v>
@@ -4885,7 +4883,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="12" t="s">
         <v>228</v>
@@ -4921,7 +4919,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="17" t="s">
         <v>230</v>
@@ -4957,7 +4955,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>267</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>268</v>
       </c>
@@ -5035,7 +5033,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="17" t="s">
         <v>239</v>
@@ -5071,7 +5069,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>269</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>270</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="17" t="s">
         <v>246</v>
@@ -5185,7 +5183,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>271</v>
       </c>
@@ -5223,7 +5221,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>272</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="17" t="s">
         <v>252</v>
@@ -5297,7 +5295,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>273</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="17" t="s">
         <v>256</v>
@@ -5371,7 +5369,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>274</v>
       </c>
@@ -5409,7 +5407,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="17" t="s">
         <v>261</v>
@@ -5445,7 +5443,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>275</v>
       </c>
@@ -5483,7 +5481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="17" t="s">
         <v>265</v>
@@ -5519,7 +5517,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7" t="s">
         <v>276</v>
@@ -5555,7 +5553,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
         <v>278</v>
@@ -5591,7 +5589,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>287</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>286</v>
       </c>
@@ -5667,7 +5665,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="1" t="s">
         <v>148</v>
@@ -5704,13 +5702,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V98" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>

--- a/Intervention outcomes and spillover effects/Intervention outcomes and spillover effects.xlsx
+++ b/Intervention outcomes and spillover effects/Intervention outcomes and spillover effects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1414051-C22F-354E-BC37-C45AFBBB2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA39E29-E2AA-074A-B800-96EC5204800F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="3400" windowWidth="23600" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -990,6 +990,9 @@
   </si>
   <si>
     <t>https://movementdisorders.onlinelibrary.wiley.com/doi/full/10.1002/mds.22575</t>
+  </si>
+  <si>
+    <t>GMHO:000001</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1811,8 @@
   <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2139,7 +2142,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>318</v>
+      </c>
       <c r="B8" s="12" t="s">
         <v>38</v>
       </c>

--- a/Intervention outcomes and spillover effects/Intervention outcomes and spillover effects.xlsx
+++ b/Intervention outcomes and spillover effects/Intervention outcomes and spillover effects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention outcomes and spillover effects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="11_D295A90A2C535A10C2167341E065F5EB470CA969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B97DFB90-111B-45E6-B098-AE1ACF497864}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B23F6D-7451-A840-BFB9-FC5D250DCD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="3400" windowWidth="23600" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1805,42 +1805,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6640625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="22.90625" customWidth="1"/>
-    <col min="21" max="21" width="17.1796875" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" style="14" customWidth="1"/>
+    <col min="20" max="20" width="22.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>22</v>
@@ -1945,7 +1943,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -1984,7 +1982,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -2140,7 +2138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="12" t="s">
         <v>38</v>
@@ -2180,7 +2178,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="12" t="s">
         <v>40</v>
@@ -2218,7 +2216,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="12" t="s">
         <v>42</v>
@@ -2258,7 +2256,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="12" t="s">
         <v>44</v>
@@ -2298,7 +2296,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>63</v>
       </c>
@@ -2340,7 +2338,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2382,7 +2380,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>60</v>
@@ -2420,7 +2418,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
         <v>67</v>
@@ -2460,7 +2458,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="12" t="s">
         <v>70</v>
@@ -2542,7 +2540,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>72</v>
@@ -2582,7 +2580,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>74</v>
@@ -2624,7 +2622,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>76</v>
@@ -2664,7 +2662,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="12" t="s">
         <v>80</v>
@@ -2708,7 +2706,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>82</v>
@@ -2750,7 +2748,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>84</v>
@@ -2790,7 +2788,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="12" t="s">
         <v>86</v>
@@ -2834,7 +2832,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>88</v>
@@ -2871,7 +2869,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="12" t="s">
         <v>91</v>
@@ -2913,7 +2911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>93</v>
@@ -2950,7 +2948,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="12" t="s">
         <v>95</v>
@@ -2992,7 +2990,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>97</v>
@@ -3030,7 +3028,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="12" t="s">
         <v>100</v>
@@ -3072,7 +3070,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="12" t="s">
         <v>108</v>
@@ -3109,7 +3107,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="12" t="s">
         <v>106</v>
@@ -3147,7 +3145,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>102</v>
@@ -3189,7 +3187,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="12" t="s">
         <v>104</v>
@@ -3231,7 +3229,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>111</v>
@@ -3275,7 +3273,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
@@ -3313,7 +3311,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>116</v>
@@ -3355,7 +3353,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="12" t="s">
         <v>118</v>
@@ -3397,7 +3395,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>123</v>
@@ -3437,7 +3435,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>125</v>
@@ -3479,7 +3477,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="13" t="s">
         <v>127</v>
@@ -3521,7 +3519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="17" t="s">
         <v>129</v>
@@ -3559,7 +3557,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
@@ -3597,7 +3595,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="18" t="s">
         <v>134</v>
@@ -3635,7 +3633,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="18" t="s">
         <v>136</v>
@@ -3675,7 +3673,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="11" t="s">
         <v>139</v>
@@ -3713,7 +3711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>142</v>
@@ -3751,7 +3749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>144</v>
@@ -3789,7 +3787,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="1" t="s">
         <v>146</v>
@@ -3827,7 +3825,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="1" t="s">
         <v>148</v>
@@ -3867,7 +3865,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
         <v>153</v>
@@ -3907,7 +3905,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="1" t="s">
         <v>155</v>
@@ -3945,7 +3943,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="13" t="s">
         <v>157</v>
@@ -3983,7 +3981,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>159</v>
@@ -4021,7 +4019,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>161</v>
@@ -4059,7 +4057,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>163</v>
@@ -4099,7 +4097,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="1" t="s">
         <v>168</v>
@@ -4137,7 +4135,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>154</v>
@@ -4178,7 +4176,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>166</v>
@@ -4216,7 +4214,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>175</v>
@@ -4258,7 +4256,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="1" t="s">
         <v>177</v>
@@ -4300,7 +4298,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>179</v>
@@ -4340,7 +4338,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>185</v>
@@ -4380,7 +4378,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>187</v>
@@ -4420,7 +4418,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="1" t="s">
         <v>191</v>
@@ -4456,7 +4454,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="1" t="s">
         <v>193</v>
@@ -4496,7 +4494,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>196</v>
@@ -4536,7 +4534,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="13" t="s">
         <v>199</v>
@@ -4576,7 +4574,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="12" t="s">
         <v>204</v>
@@ -4614,7 +4612,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="96" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="12" t="s">
         <v>206</v>
@@ -4654,7 +4652,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="12" t="s">
         <v>198</v>
@@ -4696,7 +4694,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" ht="96" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="12" t="s">
         <v>210</v>
@@ -4736,7 +4734,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="1" t="s">
         <v>217</v>
@@ -4774,7 +4772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="1" t="s">
         <v>219</v>
@@ -4812,7 +4810,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="12" t="s">
         <v>222</v>
@@ -4847,7 +4845,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="12" t="s">
         <v>224</v>
@@ -4885,7 +4883,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="12" t="s">
         <v>228</v>
@@ -4921,7 +4919,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="17" t="s">
         <v>230</v>
@@ -4957,7 +4955,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>267</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>268</v>
       </c>
@@ -5035,7 +5033,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="17" t="s">
         <v>239</v>
@@ -5071,7 +5069,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>269</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>270</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="17" t="s">
         <v>246</v>
@@ -5185,7 +5183,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>271</v>
       </c>
@@ -5223,7 +5221,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>272</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="17" t="s">
         <v>252</v>
@@ -5297,7 +5295,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>273</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="17" t="s">
         <v>256</v>
@@ -5371,7 +5369,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>274</v>
       </c>
@@ -5409,7 +5407,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="17" t="s">
         <v>261</v>
@@ -5445,7 +5443,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>275</v>
       </c>
@@ -5483,7 +5481,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="17" t="s">
         <v>265</v>
@@ -5519,7 +5517,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7" t="s">
         <v>276</v>
@@ -5555,7 +5553,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
         <v>278</v>
@@ -5591,7 +5589,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>287</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>286</v>
       </c>
@@ -5667,7 +5665,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="1" t="s">
         <v>148</v>
@@ -5704,13 +5702,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V98" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B15">
     <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
